--- a/Andi/1.4.1.3_webshop_ felhaszn_név_módosít_üres_tesztjegyzőkönyv.xlsx
+++ b/Andi/1.4.1.3_webshop_ felhaszn_név_módosít_üres_tesztjegyzőkönyv.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Training\Andi\Webshop\webshop\Andi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WEBSHOP TESZT\webshop\Andi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11148" windowHeight="6504"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11145" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,7 +357,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>...</t>
   </si>
@@ -456,6 +456,12 @@
   </si>
   <si>
     <t>Hibaüzenet</t>
+  </si>
+  <si>
+    <t>Bäck András</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -645,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -738,6 +744,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1057,22 +1066,22 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="49" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.796875" style="1"/>
+    <col min="7" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
@@ -1083,7 +1092,7 @@
       </c>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1105,7 @@
       </c>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
@@ -1107,9 +1116,11 @@
       <c r="E4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="32">
+        <v>43563.685416666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>12</v>
       </c>
@@ -1120,9 +1131,11 @@
       <c r="E5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
@@ -1133,9 +1146,11 @@
       <c r="E6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
@@ -1146,7 +1161,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
@@ -1157,7 +1172,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
@@ -1168,8 +1183,8 @@
       <c r="E9" s="13"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>5</v>
       </c>
@@ -1181,7 +1196,7 @@
       </c>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1201,7 +1216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -1214,10 +1229,12 @@
       <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -1228,10 +1245,12 @@
         <v>32</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -1241,7 +1260,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>4</v>
       </c>
@@ -1251,7 +1270,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>5</v>
       </c>
@@ -1260,7 +1279,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>6</v>
       </c>
@@ -1270,7 +1289,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>7</v>
       </c>
@@ -1280,7 +1299,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>8</v>
       </c>
@@ -1290,7 +1309,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>9</v>
       </c>
@@ -1300,7 +1319,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>10</v>
       </c>
@@ -1310,7 +1329,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>11</v>
       </c>
@@ -1320,7 +1339,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>12</v>
       </c>
@@ -1330,7 +1349,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>0</v>
       </c>
